--- a/biology/Médecine/Signe_du_glaçon/Signe_du_glaçon.xlsx
+++ b/biology/Médecine/Signe_du_glaçon/Signe_du_glaçon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Signe_du_gla%C3%A7on</t>
+          <t>Signe_du_glaçon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque la cavité péritonéale contient du liquide, le foie est décollé de la paroi abdominale chez un malade couché sur le dos.
 Lorsqu'on donne une impulsion sur la paroi abdominale, le foie, mobile dans le liquide d'ascite, est projeté en arrière, et revient vers l'avant, venant frapper la main de l'examinateur, de la même manière qu'un glaçon qu'on aurait lancé vers le fond d'un verre remonterait à la surface.
